--- a/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhe/work/choerodon/testManager/test-manager-service/src/main/resources/script/db/data_init/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538AB7A-A93D-CE44-B96C-C8088B9441B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,79 +14,63 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>test_status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#status_name</t>
+  </si>
+  <si>
+    <t>status_color</t>
+  </si>
+  <si>
+    <t>#status_type</t>
+  </si>
+  <si>
+    <t>#project_id</t>
+  </si>
+  <si>
+    <t>未执行</t>
+  </si>
+  <si>
+    <t>rgba(0,0,0,0.18)</t>
+  </si>
+  <si>
+    <t>CYCLE_CASE</t>
   </si>
   <si>
     <t>通过</t>
   </si>
   <si>
+    <t>rgba(0,191,165,1)</t>
+  </si>
+  <si>
     <t>失败</t>
   </si>
   <si>
-    <t>CYCLE_CASE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>rgba(244,67,54,1)</t>
   </si>
   <si>
     <t>CASE_STEP</t>
-  </si>
-  <si>
-    <t>未执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#status_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#status_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#project_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgba(0,0,0,0.18)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgba(0,191,165,1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgba(244,67,54,1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*status_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -104,32 +82,355 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -137,30 +438,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,26 +1005,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="9.6640625"/>
+    <col min="1" max="1025" width="9.66666666666667"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -446,150 +1032,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.6640625"/>
+    <col min="1" max="3" width="9.66666666666667"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="30.5"/>
-    <col min="7" max="7" width="17.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="1025" width="9.6640625"/>
+    <col min="5" max="5" width="30.5"/>
+    <col min="6" max="6" width="17.6666666666667"/>
+    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
+    <col min="9" max="1024" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:8">
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:8">
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:8">
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:8">
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>

--- a/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
@@ -19,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>test_status</t>
   </si>
   <si>
+    <t>*status_id</t>
+  </si>
+  <si>
     <t>#status_name</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
   </si>
   <si>
     <t>#project_id</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>未执行</t>
@@ -85,17 +91,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,15 +123,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,9 +213,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,96 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +251,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +347,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,37 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,49 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,25 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,80 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,159 +468,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1034,121 +1041,143 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H13"/>
+  <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.66666666666667"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.5"/>
-    <col min="6" max="6" width="17.6666666666667"/>
-    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
-    <col min="9" max="1024" width="9.66666666666667"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5"/>
+    <col min="7" max="7" width="17.6666666666667"/>
+    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.1666666666667" customWidth="1"/>
+    <col min="10" max="1025" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="4:9">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="5:8">
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="5:9">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
-      <c r="E9" t="s">
+    <row r="9" spans="5:9">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
-      <c r="E10" t="s">
+    <row r="12" spans="5:9">
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    <row r="13" spans="5:9">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8">
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="990" activeTab="1"/>
+    <workbookView windowHeight="14400" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>test_status</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>rgba(244,67,54,1)</t>
+  </si>
+  <si>
+    <t>重测</t>
+  </si>
+  <si>
+    <t>rgba(255,177,0,100)</t>
+  </si>
+  <si>
+    <t>无需测试</t>
+  </si>
+  <si>
+    <t>rgba(77,144,254,100)</t>
   </si>
   <si>
     <t>CASE_STEP</t>
@@ -71,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,51 +104,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,46 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,40 +224,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,30 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +468,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +511,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,225 +554,213 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1016,7 +1027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1024,7 +1035,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1025" width="9.66666666666667"/>
   </cols>
@@ -1039,21 +1050,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:I13"/>
+  <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="9.66666666666667"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5"/>
-    <col min="7" max="7" width="17.6666666666667"/>
+    <col min="7" max="7" width="21.6583333333333" customWidth="1"/>
     <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="16.1666666666667" customWidth="1"/>
     <col min="10" max="1025" width="9.66666666666667"/>
@@ -1063,19 +1074,19 @@
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1083,16 +1094,16 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1103,10 +1114,10 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9">
@@ -1120,10 +1131,10 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10">
@@ -1134,14 +1145,14 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1151,14 +1162,14 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1168,16 +1179,84 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/test_manager_service/2018-07-18-data-init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>test_status</t>
   </si>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -170,6 +170,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,16 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,31 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,9 +239,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,18 +284,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,22 +304,6 @@
       <color indexed="8"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -327,7 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,31 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,19 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,31 +453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -551,17 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,53 +606,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -649,103 +649,103 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -765,8 +765,8 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1109,7 +1109,7 @@
   <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1327,10 +1327,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:L10"/>
+  <dimension ref="C7:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -12360,6 +12360,84 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" customFormat="true" spans="3:12">
+      <c r="C11" s="1"/>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="true" spans="3:12">
+      <c r="C12" s="1"/>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="true" spans="3:12">
+      <c r="C13" s="1"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
